--- a/data/imagematning.xlsx
+++ b/data/imagematning.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dokument\Git_repos\NKI\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="135" windowWidth="14355" windowHeight="8250"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="55">
   <si>
     <t>Nyckeltal</t>
   </si>
@@ -112,9 +117,6 @@
     <t>Kännedom om Försäkringskassan</t>
   </si>
   <si>
-    <t>Kännedom omKonsumentverket</t>
-  </si>
-  <si>
     <t>Kännedom om Kronofogden</t>
   </si>
   <si>
@@ -187,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -670,34 +672,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Dekorfärg2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Dekorfärg3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Dekorfärg4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Dekorfärg5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Dekorfärg6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Dekorfärg6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Dekorfärg6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Dekorfärg6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Dekorfärg6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Dekorfärg6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Anteckning" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Beräkning" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Bra" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Dekorfärg6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Dålig" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Färg1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Färg2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Färg3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Färg4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Färg5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Färg6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Förklarande text" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Indata" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Kontrollcell" xfId="13" builtinId="23" customBuiltin="1"/>
@@ -718,6 +720,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -766,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -801,7 +806,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1012,9 +1017,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="108" customWidth="1"/>
+    <col min="3" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="25" customWidth="1"/>
+    <col min="14" max="14" width="35.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1817,7 +1837,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>2015</v>
@@ -1864,7 +1884,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>2015</v>
@@ -1911,7 +1931,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>2015</v>
@@ -1958,7 +1978,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -2005,7 +2025,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>2015</v>
@@ -2052,7 +2072,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>2015</v>
@@ -2851,7 +2871,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>2014</v>
@@ -2898,7 +2918,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>2014</v>
@@ -2945,7 +2965,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42">
         <v>2014</v>
@@ -2992,7 +3012,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>2014</v>
@@ -3039,7 +3059,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>2014</v>
@@ -3086,7 +3106,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <v>2014</v>
@@ -3885,7 +3905,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62">
         <v>2013</v>
@@ -3932,7 +3952,7 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B63">
         <v>2013</v>
@@ -3979,7 +3999,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64">
         <v>2013</v>
@@ -4026,7 +4046,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65">
         <v>2013</v>
@@ -4073,7 +4093,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66">
         <v>2013</v>
@@ -4120,7 +4140,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67">
         <v>2013</v>
@@ -4571,7 +4591,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84">
         <v>2012</v>
@@ -4600,7 +4620,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B85">
         <v>2012</v>
@@ -4629,7 +4649,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B86">
         <v>2012</v>
@@ -4658,7 +4678,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B87">
         <v>2012</v>
@@ -4687,7 +4707,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B88">
         <v>2012</v>
@@ -4716,7 +4736,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B89">
         <v>2012</v>
@@ -5113,7 +5133,7 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B106">
         <v>2011</v>
@@ -5136,7 +5156,7 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B107">
         <v>2011</v>
@@ -5159,7 +5179,7 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B108">
         <v>2011</v>
@@ -5182,7 +5202,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B109">
         <v>2011</v>
@@ -5205,7 +5225,7 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B110">
         <v>2011</v>
@@ -5228,7 +5248,7 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B111">
         <v>2011</v>
@@ -5715,7 +5735,7 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B128">
         <v>2010</v>
@@ -5744,7 +5764,7 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B129">
         <v>2010</v>
@@ -5773,7 +5793,7 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B130">
         <v>2010</v>
@@ -5802,7 +5822,7 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B131">
         <v>2010</v>
@@ -5831,7 +5851,7 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B132">
         <v>2010</v>
@@ -5860,7 +5880,7 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B133">
         <v>2010</v>
@@ -5889,7 +5909,7 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B134">
         <v>2015</v>
@@ -5931,12 +5951,12 @@
         <v>65</v>
       </c>
       <c r="O134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B135">
         <v>2014</v>
@@ -5978,12 +5998,12 @@
         <v>29</v>
       </c>
       <c r="O135" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B136">
         <v>2013</v>
@@ -6025,12 +6045,12 @@
         <v>30</v>
       </c>
       <c r="O136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B137">
         <v>2012</v>
@@ -6054,12 +6074,12 @@
         <v>29</v>
       </c>
       <c r="O137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138">
         <v>2011</v>
@@ -6077,12 +6097,12 @@
         <v>29</v>
       </c>
       <c r="O138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B139">
         <v>2010</v>
@@ -6106,12 +6126,12 @@
         <v>30</v>
       </c>
       <c r="O139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B140">
         <v>2015</v>
@@ -6144,12 +6164,12 @@
         <v>33</v>
       </c>
       <c r="O140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B141">
         <v>2014</v>
@@ -6182,12 +6202,12 @@
         <v>31</v>
       </c>
       <c r="O141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B142">
         <v>2013</v>
@@ -6220,12 +6240,12 @@
         <v>26</v>
       </c>
       <c r="O142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B143">
         <v>2012</v>
@@ -6249,12 +6269,12 @@
         <v>26</v>
       </c>
       <c r="O143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B144">
         <v>2011</v>
@@ -6272,12 +6292,12 @@
         <v>20</v>
       </c>
       <c r="O144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B145">
         <v>2010</v>
@@ -6301,12 +6321,12 @@
         <v>22</v>
       </c>
       <c r="O145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B146">
         <v>2015</v>
@@ -6339,12 +6359,12 @@
         <v>45</v>
       </c>
       <c r="O146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B147">
         <v>2014</v>
@@ -6377,12 +6397,12 @@
         <v>42</v>
       </c>
       <c r="O147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B148">
         <v>2013</v>
@@ -6415,12 +6435,12 @@
         <v>47</v>
       </c>
       <c r="O148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B149">
         <v>2012</v>
@@ -6444,12 +6464,12 @@
         <v>38</v>
       </c>
       <c r="O149" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B150">
         <v>2011</v>
@@ -6467,12 +6487,12 @@
         <v>24</v>
       </c>
       <c r="O150" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B151">
         <v>2010</v>
@@ -6496,12 +6516,12 @@
         <v>34</v>
       </c>
       <c r="O151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B152">
         <v>2015</v>
@@ -6534,12 +6554,12 @@
         <v>51</v>
       </c>
       <c r="O152" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B153">
         <v>2014</v>
@@ -6572,12 +6592,12 @@
         <v>49</v>
       </c>
       <c r="O153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B154">
         <v>2013</v>
@@ -6610,12 +6630,12 @@
         <v>51</v>
       </c>
       <c r="O154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B155">
         <v>2012</v>
@@ -6639,12 +6659,12 @@
         <v>49</v>
       </c>
       <c r="O155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B156">
         <v>2011</v>
@@ -6662,12 +6682,12 @@
         <v>34</v>
       </c>
       <c r="O156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B157">
         <v>2010</v>
@@ -6691,12 +6711,12 @@
         <v>38</v>
       </c>
       <c r="O157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B158">
         <v>2015</v>
@@ -6729,12 +6749,12 @@
         <v>56</v>
       </c>
       <c r="O158" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B159">
         <v>2014</v>
@@ -6767,12 +6787,12 @@
         <v>52</v>
       </c>
       <c r="O159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B160">
         <v>2013</v>
@@ -6805,12 +6825,12 @@
         <v>56</v>
       </c>
       <c r="O160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B161">
         <v>2012</v>
@@ -6834,12 +6854,12 @@
         <v>44</v>
       </c>
       <c r="O161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B162">
         <v>2011</v>
@@ -6857,12 +6877,12 @@
         <v>30</v>
       </c>
       <c r="O162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B163">
         <v>2010</v>
@@ -6886,12 +6906,12 @@
         <v>41</v>
       </c>
       <c r="O163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B164">
         <v>2015</v>
@@ -6924,12 +6944,12 @@
         <v>31</v>
       </c>
       <c r="O164" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B165">
         <v>2014</v>
@@ -6962,12 +6982,12 @@
         <v>32</v>
       </c>
       <c r="O165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B166">
         <v>2013</v>
@@ -7000,12 +7020,12 @@
         <v>36</v>
       </c>
       <c r="O166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B167">
         <v>2012</v>
@@ -7029,12 +7049,12 @@
         <v>33</v>
       </c>
       <c r="O167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B168">
         <v>2011</v>
@@ -7052,12 +7072,12 @@
         <v>28</v>
       </c>
       <c r="O168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B169">
         <v>2010</v>
@@ -7081,12 +7101,12 @@
         <v>23</v>
       </c>
       <c r="O169" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B170">
         <v>2015</v>
@@ -7128,12 +7148,12 @@
         <v>33</v>
       </c>
       <c r="O170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B171">
         <v>2014</v>
@@ -7175,12 +7195,12 @@
         <v>31</v>
       </c>
       <c r="O171" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B172">
         <v>2013</v>
@@ -7222,12 +7242,12 @@
         <v>37</v>
       </c>
       <c r="O172" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B173">
         <v>2012</v>
@@ -7251,34 +7271,34 @@
         <v>38</v>
       </c>
       <c r="O173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B174">
         <v>2011</v>
       </c>
       <c r="O174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B175">
         <v>2010</v>
       </c>
       <c r="O175" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B176">
         <v>2015</v>
@@ -7299,12 +7319,12 @@
         <v>51</v>
       </c>
       <c r="O176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B177">
         <v>2014</v>
@@ -7331,56 +7351,56 @@
         <v>50</v>
       </c>
       <c r="O177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B178">
         <v>2013</v>
       </c>
       <c r="O178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B179">
         <v>2012</v>
       </c>
       <c r="O179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B180">
         <v>2011</v>
       </c>
       <c r="O180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B181">
         <v>2010</v>
       </c>
       <c r="O181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B182">
         <v>2015</v>
@@ -7407,12 +7427,12 @@
         <v>51</v>
       </c>
       <c r="O182" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B183">
         <v>2014</v>
@@ -7445,56 +7465,56 @@
         <v>40</v>
       </c>
       <c r="O183" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B184">
         <v>2013</v>
       </c>
       <c r="O184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B185">
         <v>2012</v>
       </c>
       <c r="O185" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B186">
         <v>2011</v>
       </c>
       <c r="O186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B187">
         <v>2010</v>
       </c>
       <c r="O187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B188">
         <v>2015</v>
@@ -7536,12 +7556,12 @@
         <v>33</v>
       </c>
       <c r="O188" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B189">
         <v>2014</v>
@@ -7583,12 +7603,12 @@
         <v>36</v>
       </c>
       <c r="O189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B190">
         <v>2013</v>
@@ -7630,12 +7650,12 @@
         <v>29</v>
       </c>
       <c r="O190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B191">
         <v>2012</v>
@@ -7659,12 +7679,12 @@
         <v>25</v>
       </c>
       <c r="O191" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B192">
         <v>2011</v>
@@ -7676,12 +7696,12 @@
         <v>16</v>
       </c>
       <c r="O192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B193">
         <v>2010</v>
@@ -7705,12 +7725,12 @@
         <v>19</v>
       </c>
       <c r="O193" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B194">
         <v>2015</v>
@@ -7752,12 +7772,12 @@
         <v>21</v>
       </c>
       <c r="O194" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B195">
         <v>2014</v>
@@ -7799,12 +7819,12 @@
         <v>24</v>
       </c>
       <c r="O195" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B196">
         <v>2013</v>
@@ -7846,12 +7866,12 @@
         <v>30</v>
       </c>
       <c r="O196" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B197">
         <v>2012</v>
@@ -7875,12 +7895,12 @@
         <v>22</v>
       </c>
       <c r="O197" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B198">
         <v>2011</v>
@@ -7892,12 +7912,12 @@
         <v>40</v>
       </c>
       <c r="O198" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B199">
         <v>2010</v>
@@ -7921,12 +7941,12 @@
         <v>34</v>
       </c>
       <c r="O199" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B200">
         <v>2015</v>
@@ -7950,12 +7970,12 @@
         <v>18</v>
       </c>
       <c r="O200" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B201">
         <v>2014</v>
@@ -7979,12 +7999,12 @@
         <v>15</v>
       </c>
       <c r="O201" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B202">
         <v>2013</v>
@@ -8026,12 +8046,12 @@
         <v>25</v>
       </c>
       <c r="O202" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B203">
         <v>2012</v>
@@ -8055,29 +8075,29 @@
         <v>22</v>
       </c>
       <c r="O203" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B204">
         <v>2011</v>
       </c>
       <c r="O204" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B205">
         <v>2010</v>
       </c>
       <c r="O205" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
